--- a/資料作成用.xlsx
+++ b/資料作成用.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\クラス共通\01_検定試験\01_Pythonエンジニア基礎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9584955e88dab94/デスクトップ/データ類/python/自主学習用/Pyエンジニア基礎検定/Certified-Py3-Engineer-Basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8151F913-CB22-4C5C-A6E6-320487856982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{8151F913-CB22-4C5C-A6E6-320487856982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D734F1CE-4BF0-4438-B979-050171196866}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="24" windowWidth="17184" windowHeight="12048" xr2:uid="{392FD701-0E81-42E9-B842-F22DECA3DF89}"/>
+    <workbookView xWindow="50" yWindow="50" windowWidth="18460" windowHeight="9900" xr2:uid="{392FD701-0E81-42E9-B842-F22DECA3DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>ループ</t>
   </si>
@@ -48,75 +46,6 @@
   </si>
   <si>
     <t>実行内容</t>
-  </si>
-  <si>
-    <t>['apple', 'kiwi', 'plum']</t>
-  </si>
-  <si>
-    <t>'kiwi'</t>
-  </si>
-  <si>
-    <t>末尾を削除 →</t>
-  </si>
-  <si>
-    <t>['kiwi', 'apple', 'kiwi']</t>
-  </si>
-  <si>
-    <t>'plum'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ['plum','kiwi','apple']</t>
-  </si>
-  <si>
-    <t>['plum','kiwi','apple']</t>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文字 → ○</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">先頭に </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">'plum' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を追加 → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>['plum','kiwi','apple','kiwi’]</t>
-    </r>
   </si>
   <si>
     <r>
@@ -150,52 +79,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">先頭に </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">'January' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を追加 → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>['January', 'March', 'May', 'July', 'September']</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>先頭に 'January' を追加 → ['January', 'March', 'May', 'July', 'September']</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ['kiwi','apple','kiwi']</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>末尾を削除 →</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">ループ後の </t>
     </r>
     <r>
@@ -232,15 +115,188 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">先頭に 'January' を追加  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>['January','January', 'March', 'May', 'July', 'September']</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>'March'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5文字 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✖</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何もしない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'May'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">3文字 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✖</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'July'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">4文字 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✖</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>先頭(index[0])に 'January' を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">9文字 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'September'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['September','January','January', 'March', 'May', 'July', 'September']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">先頭(index[0])に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'September' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -248,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +368,27 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans JP"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -335,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -385,14 +462,27 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -401,96 +491,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,161 +898,146 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.796875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.296875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="41.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
+      <c r="C7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="42.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
-    <row r="3" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="68.400000000000006" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" ht="47.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="23"/>
+    <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料作成用.xlsx
+++ b/資料作成用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9584955e88dab94/デスクトップ/データ類/python/自主学習用/Pyエンジニア基礎検定/Certified-Py3-Engineer-Basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\クラス共通\01_検定試験\01_Pythonエンジニア基礎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{8151F913-CB22-4C5C-A6E6-320487856982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D734F1CE-4BF0-4438-B979-050171196866}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9714E11-EA0A-466E-85E2-6CEB5B6BB981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="50" windowWidth="18460" windowHeight="9900" xr2:uid="{392FD701-0E81-42E9-B842-F22DECA3DF89}"/>
+    <workbookView xWindow="1920" yWindow="192" windowWidth="17184" windowHeight="12048" xr2:uid="{392FD701-0E81-42E9-B842-F22DECA3DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,6 +534,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -545,21 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,47 +898,47 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.296875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="42.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -972,14 +972,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -989,14 +989,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1006,32 +1006,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="62" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" ht="63.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="20"/>
+    <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
